--- a/files/timeplaning.xlsx
+++ b/files/timeplaning.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Timeplanning" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Tasks</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Implementation</t>
   </si>
   <si>
-    <t>Business</t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
@@ -71,33 +68,18 @@
     <t>Time to work</t>
   </si>
   <si>
-    <t>Danish group</t>
-  </si>
-  <si>
     <t>Implementation of server</t>
   </si>
   <si>
-    <t>Anna</t>
-  </si>
-  <si>
     <t xml:space="preserve">Research </t>
   </si>
   <si>
-    <t>Ahmet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation </t>
-  </si>
-  <si>
     <t>Network Analyses</t>
   </si>
   <si>
     <t>Machine Learning</t>
   </si>
   <si>
-    <t>Optimizing python</t>
-  </si>
-  <si>
     <t>Improving the honeypot</t>
   </si>
   <si>
@@ -110,9 +92,6 @@
     <t>Make a requirement specification</t>
   </si>
   <si>
-    <t>Meetings</t>
-  </si>
-  <si>
     <t>Documentation and acces to honeypot</t>
   </si>
   <si>
@@ -123,6 +102,30 @@
   </si>
   <si>
     <t>Important</t>
+  </si>
+  <si>
+    <t>AAU</t>
+  </si>
+  <si>
+    <t>Saxion</t>
+  </si>
+  <si>
+    <t>UTP</t>
+  </si>
+  <si>
+    <t>AGU</t>
+  </si>
+  <si>
+    <t>Important Meetings</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>Optimizing python script</t>
+  </si>
+  <si>
+    <t>Containment zone</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +210,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +248,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -249,11 +258,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -538,23 +552,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA46"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2">
         <v>7</v>
@@ -586,7 +604,7 @@
       <c r="L1" s="2">
         <v>16</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="18">
         <v>17</v>
       </c>
       <c r="N1" s="2">
@@ -624,9 +642,6 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="E2" s="8"/>
@@ -635,7 +650,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -652,7 +667,7 @@
       <c r="E4" s="8"/>
       <c r="N4" s="7"/>
       <c r="R4" s="5"/>
-      <c r="X4" s="10"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -661,7 +676,7 @@
       <c r="E5" s="8"/>
       <c r="N5" s="7"/>
       <c r="R5" s="5"/>
-      <c r="X5" s="10"/>
+      <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -672,7 +687,7 @@
       <c r="G6" s="6"/>
       <c r="N6" s="7"/>
       <c r="R6" s="5"/>
-      <c r="X6" s="10"/>
+      <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -687,7 +702,7 @@
       <c r="K7" s="4"/>
       <c r="N7" s="7"/>
       <c r="R7" s="5"/>
-      <c r="X7" s="10"/>
+      <c r="X7" s="12"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -702,7 +717,7 @@
       <c r="K8" s="6"/>
       <c r="N8" s="7"/>
       <c r="R8" s="5"/>
-      <c r="X8" s="10"/>
+      <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -711,21 +726,20 @@
       <c r="E9" s="8"/>
       <c r="N9" s="7"/>
       <c r="R9" s="5"/>
-      <c r="X9" s="10"/>
+      <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="8"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
       <c r="N10" s="7"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="X10" s="10"/>
+      <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -739,7 +753,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="X11" s="10"/>
+      <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -751,284 +765,295 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="X12" s="10"/>
+      <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E13" s="10"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="N13" s="5"/>
       <c r="R13" s="5"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="N14" s="5"/>
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="R16" s="10"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="N24" s="5"/>
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="13"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="R26" s="12"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" s="12"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R28" s="12"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R29" s="12"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R34" s="12"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R35" s="12"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="12"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="T38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E39" s="15"/>
+      <c r="T39" s="7"/>
+      <c r="U39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T40" s="4"/>
+      <c r="U40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T41" s="6"/>
+      <c r="U41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T42" s="12"/>
+      <c r="U42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T43" s="15"/>
+      <c r="U43" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="R19" s="10"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R22" s="10"/>
-      <c r="Z22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R23" s="10"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R24" s="10"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R25" s="10"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="4"/>
-      <c r="R26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="R27" s="10"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R29" s="10"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R30" s="10"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R31" s="10"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R32" s="10"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R33" s="10"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R34" s="10"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R35" s="10"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="R37" s="10"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="R39" s="10"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R40" s="10"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R41" s="10"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R42" s="10"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>28</v>
-      </c>
-      <c r="R43" s="10"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T44" s="9"/>
+      <c r="U44" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/timeplaning.xlsx
+++ b/files/timeplaning.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanes\OneDrive\Dokumenter\uni\2. semester\epic\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Honeyjar\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeplanning" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Tasks</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Plan of action (draft) bussines</t>
   </si>
   <si>
-    <t>Important</t>
-  </si>
-  <si>
     <t>AAU</t>
   </si>
   <si>
@@ -126,12 +123,18 @@
   </si>
   <si>
     <t>Containment zone</t>
+  </si>
+  <si>
+    <t>Grades</t>
+  </si>
+  <si>
+    <t>Milestones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -270,10 +273,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,23 +554,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,16 +644,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="E2" s="8"/>
       <c r="N2" s="7"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -658,7 +661,7 @@
       <c r="N3" s="7"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -669,7 +672,7 @@
       <c r="R4" s="5"/>
       <c r="X4" s="12"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -678,7 +681,7 @@
       <c r="R5" s="5"/>
       <c r="X5" s="12"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -689,7 +692,7 @@
       <c r="R6" s="5"/>
       <c r="X6" s="12"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -704,7 +707,7 @@
       <c r="R7" s="5"/>
       <c r="X7" s="12"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -719,7 +722,7 @@
       <c r="R8" s="5"/>
       <c r="X8" s="12"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -728,7 +731,7 @@
       <c r="R9" s="5"/>
       <c r="X9" s="12"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -741,7 +744,7 @@
       <c r="R10" s="4"/>
       <c r="X10" s="12"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -755,7 +758,7 @@
       <c r="T11" s="6"/>
       <c r="X11" s="12"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -767,7 +770,7 @@
       <c r="V12" s="4"/>
       <c r="X12" s="12"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E13" s="10"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -783,17 +786,17 @@
       <c r="V13" s="4"/>
       <c r="X13" s="12"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -802,7 +805,7 @@
       <c r="E16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -813,7 +816,7 @@
       <c r="G17" s="6"/>
       <c r="R17" s="12"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -831,7 +834,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -847,7 +850,7 @@
       <c r="P19" s="6"/>
       <c r="R19" s="12"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -863,19 +866,19 @@
       <c r="P20" s="4"/>
       <c r="R20" s="12"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R21" s="12"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -892,9 +895,9 @@
       <c r="N24" s="5"/>
       <c r="R24" s="12"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -912,7 +915,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -924,19 +927,19 @@
       <c r="K26" s="6"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R27" s="12"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="R28" s="12"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R29" s="12"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -956,7 +959,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -968,7 +971,7 @@
       <c r="K31" s="6"/>
       <c r="R31" s="12"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -978,9 +981,9 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -988,25 +991,25 @@
       <c r="F33" s="6"/>
       <c r="R33" s="12"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R34" s="12"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R35" s="12"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R36" s="12"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>22</v>
       </c>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -1025,34 +1028,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="P40" s="15"/>
       <c r="T40" s="4"/>
       <c r="U40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="T41" s="6"/>
       <c r="U41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="T42" s="12"/>
       <c r="U42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="T43" s="15"/>
       <c r="U43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="T44" s="9"/>
       <c r="U44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
